--- a/biology/Biologie cellulaire et moléculaire/CX3CL1/CX3CL1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/CX3CL1/CX3CL1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fractalkine, ou CX3CL1, est une chimiokine présentant l'originalité d'être produite sous la forme d'une protéine membranaire.
 Elle est exprimée au niveau des cellules endothéliales des vaisseaux sanguins ainsi qu'au niveau du système nerveux central.
